--- a/xlsx/新共和_intext.xlsx
+++ b/xlsx/新共和_intext.xlsx
@@ -29,25 +29,25 @@
     <t>克里斯·休斯</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_新共和</t>
+    <t>政策_政策_维基百科_新共和</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E7%89%B9%E5%8D%80</t>
   </si>
   <si>
-    <t>華盛頓特區</t>
+    <t>华盛顿特区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AA%9E</t>
   </si>
   <si>
-    <t>英語</t>
+    <t>英语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ISSN</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%9C%E8%AA%8C</t>
   </si>
   <si>
-    <t>雜誌</t>
+    <t>杂志</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB</t>
@@ -71,13 +71,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E7%B7%A8%E8%BC%AF</t>
   </si>
   <si>
-    <t>總編輯</t>
+    <t>总编辑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B7%A8%E8%BC%AF</t>
   </si>
   <si>
-    <t>編輯</t>
+    <t>编辑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:US-stub</t>
